--- a/jupyter/lab6/rawData/lab 6 measurements.xlsx
+++ b/jupyter/lab6/rawData/lab 6 measurements.xlsx
@@ -1,16 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronflannery/Documents/github/MAE170/jupyter/lab6/rawData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="dynamicMeasurements" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="staticMeasurements" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="accelAngle" sheetId="4" r:id="rId6"/>
-    <sheet state="visible" name="Part1" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dynamicMeasurements" sheetId="2" r:id="rId2"/>
+    <sheet name="staticMeasurements" sheetId="3" r:id="rId3"/>
+    <sheet name="accelAngle" sheetId="4" r:id="rId4"/>
+    <sheet name="Part1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -146,21 +162,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -169,28 +188,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="18"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -199,28 +225,33 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="1" sz="1600">
+              <a:defRPr sz="1600" b="1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Voltage vs Delta h</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="3366CC"/>
               </a:solidFill>
@@ -232,11 +263,120 @@
           <c:cat>
             <c:strRef>
               <c:f>Part1!$A$1:$A$1000</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>deltah(cm)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-75</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Part1!$B$1:$B$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -245,7 +385,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln cmpd="sng" w="25400">
+            <a:ln w="25400" cmpd="sng">
               <a:solidFill>
                 <a:srgbClr val="DC3912"/>
               </a:solidFill>
@@ -257,20 +397,138 @@
           <c:cat>
             <c:strRef>
               <c:f>Part1!$A$1:$A$1000</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>deltah(cm)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-75</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Part1!$C$1:$C$1000</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1000"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-17.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-34.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-54.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-67.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-86.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-106.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-122.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-141.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-160.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-177.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-194.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-213.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-232.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-251.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-270.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1683086478"/>
-        <c:axId val="1325376346"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-235964720"/>
+        <c:axId val="-139413184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1683086478"/>
+        <c:axId val="-235964720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -286,13 +544,19 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US"/>
                   <a:t>Horizontal axis title</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -300,12 +564,18 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1325376346"/>
+        <c:crossAx val="-139413184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1325376346"/>
+        <c:axId val="-139413184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -321,6 +591,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -334,21 +606,39 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1683086478"/>
+        <c:crossAx val="-235964720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -362,9 +652,9 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -373,7 +663,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -382,33 +672,279 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J88"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.29"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -416,7 +952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
@@ -427,7 +963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -456,412 +992,412 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>-70.0</v>
+        <v>-70</v>
       </c>
       <c r="G5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>-255.0</v>
+        <v>-255</v>
       </c>
       <c r="I5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="C6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>-17.0</v>
+        <v>-17</v>
       </c>
       <c r="E6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>-65.0</v>
+        <v>-65</v>
       </c>
       <c r="G6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
-        <v>-239.0</v>
+        <v>-239</v>
       </c>
       <c r="I6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1">
-        <v>-10.0</v>
+        <v>-10</v>
       </c>
       <c r="C7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>-34.0</v>
+        <v>-34</v>
       </c>
       <c r="E7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>-60.0</v>
+        <v>-60</v>
       </c>
       <c r="G7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>-222.0</v>
+        <v>-222</v>
       </c>
       <c r="I7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
-        <v>-15.0</v>
+        <v>-15</v>
       </c>
       <c r="C8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>-54.0</v>
+        <v>-54</v>
       </c>
       <c r="E8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>-55.0</v>
+        <v>-55</v>
       </c>
       <c r="G8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>-206.0</v>
+        <v>-206</v>
       </c>
       <c r="I8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
-        <v>-20.0</v>
+        <v>-20</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>-67.0</v>
+        <v>-67</v>
       </c>
       <c r="E9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>-50.0</v>
+        <v>-50</v>
       </c>
       <c r="G9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>-189.0</v>
+        <v>-189</v>
       </c>
       <c r="I9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1">
-        <v>-25.0</v>
+        <v>-25</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>-86.0</v>
+        <v>-86</v>
       </c>
       <c r="E10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>-45.0</v>
+        <v>-45</v>
       </c>
       <c r="G10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>-171.0</v>
+        <v>-171</v>
       </c>
       <c r="I10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1">
-        <v>-30.0</v>
+        <v>-30</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>-106.0</v>
+        <v>-106</v>
       </c>
       <c r="E11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>-40.0</v>
+        <v>-40</v>
       </c>
       <c r="G11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
-        <v>-155.0</v>
+        <v>-155</v>
       </c>
       <c r="I11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1">
-        <v>-35.0</v>
+        <v>-35</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>-122.0</v>
+        <v>-122</v>
       </c>
       <c r="E12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>-35.0</v>
+        <v>-35</v>
       </c>
       <c r="G12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>-136.0</v>
+        <v>-136</v>
       </c>
       <c r="I12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1">
-        <v>-40.0</v>
+        <v>-40</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>-141.0</v>
+        <v>-141</v>
       </c>
       <c r="E13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>-30.0</v>
+        <v>-30</v>
       </c>
       <c r="G13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>-119.0</v>
+        <v>-119</v>
       </c>
       <c r="I13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1">
-        <v>-45.0</v>
+        <v>-45</v>
       </c>
       <c r="C14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>-160.0</v>
+        <v>-160</v>
       </c>
       <c r="E14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>-25.0</v>
+        <v>-25</v>
       </c>
       <c r="G14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>-102.0</v>
+        <v>-102</v>
       </c>
       <c r="I14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1">
-        <v>-50.0</v>
+        <v>-50</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>-177.0</v>
+        <v>-177</v>
       </c>
       <c r="E15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>-20.0</v>
+        <v>-20</v>
       </c>
       <c r="G15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1">
-        <v>-84.0</v>
+        <v>-84</v>
       </c>
       <c r="I15" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1">
-        <v>-55.0</v>
+        <v>-55</v>
       </c>
       <c r="C16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>-194.0</v>
+        <v>-194</v>
       </c>
       <c r="E16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>-15.0</v>
+        <v>-15</v>
       </c>
       <c r="G16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>-66.0</v>
+        <v>-66</v>
       </c>
       <c r="I16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1">
-        <v>-60.0</v>
+        <v>-60</v>
       </c>
       <c r="C17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>-213.0</v>
+        <v>-213</v>
       </c>
       <c r="E17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>-10.0</v>
+        <v>-10</v>
       </c>
       <c r="G17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>-48.0</v>
+        <v>-48</v>
       </c>
       <c r="I17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1">
-        <v>-65.0</v>
+        <v>-65</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>-232.0</v>
+        <v>-232</v>
       </c>
       <c r="E18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="G18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>-32.0</v>
+        <v>-32</v>
       </c>
       <c r="I18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1">
-        <v>-70.0</v>
+        <v>-70</v>
       </c>
       <c r="C19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>-251.0</v>
+        <v>-251</v>
       </c>
       <c r="E19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1">
-        <v>-15.0</v>
+        <v>-15</v>
       </c>
       <c r="I19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
-        <v>-75.0</v>
+        <v>-75</v>
       </c>
       <c r="C20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>-270.0</v>
+        <v>-270</v>
       </c>
       <c r="E20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -869,7 +1405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -883,12 +1419,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
         <v>0.7</v>
@@ -897,250 +1433,250 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="E26" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="E27" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="1">
-        <v>362.0</v>
+        <v>362</v>
       </c>
       <c r="E28" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
-        <v>468.0</v>
+        <v>468</v>
       </c>
       <c r="E29" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>556.0</v>
+        <v>556</v>
       </c>
       <c r="E30" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="1">
-        <v>628.0</v>
+        <v>628</v>
       </c>
       <c r="E31" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>681.0</v>
+        <v>681</v>
       </c>
       <c r="E32" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>716.0</v>
+        <v>716</v>
       </c>
       <c r="E33" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>728.0</v>
+        <v>728</v>
       </c>
       <c r="E34" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>715.0</v>
+        <v>715</v>
       </c>
       <c r="E35" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>680.0</v>
+        <v>680</v>
       </c>
       <c r="E36" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="1">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="E37" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>557.0</v>
+        <v>557</v>
       </c>
       <c r="E38" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D39" s="1">
-        <v>467.0</v>
+        <v>467</v>
       </c>
       <c r="E39" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="C40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>361.0</v>
+        <v>361</v>
       </c>
       <c r="E40" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="E41" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="E42" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="C43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="1">
         <v>0.9</v>
@@ -1149,10 +1685,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>25</v>
       </c>
@@ -1160,7 +1696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>27</v>
       </c>
@@ -1168,7 +1704,7 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -1188,15 +1724,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B49" s="1">
-        <v>0.1316</v>
+        <v>0.13159999999999999</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:C53" si="1">B49*$C$47</f>
+        <f t="shared" ref="C49:C53" si="0">B49*$C$47</f>
         <v>1.290996</v>
       </c>
       <c r="D49" s="1">
@@ -1206,21 +1742,21 @@
         <v>0.05</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49:F53" si="2"> D49*10^-3</f>
-        <v>0.0005</v>
-      </c>
-    </row>
-    <row r="50">
+        <f t="shared" ref="F49:F53" si="1">D49*10^-3</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>0.0935</v>
+        <v>9.35E-2</v>
       </c>
       <c r="B50">
         <f>$B$49+A50</f>
-        <v>0.2251</v>
+        <v>0.22509999999999999</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
-        <v>2.208231</v>
+        <f t="shared" si="0"/>
+        <v>2.2082310000000001</v>
       </c>
       <c r="D50" s="1">
         <v>1.8</v>
@@ -1229,21 +1765,21 @@
         <v>0.05</v>
       </c>
       <c r="F50">
-        <f t="shared" si="2"/>
-        <v>0.0018</v>
-      </c>
-    </row>
-    <row r="51">
+        <f t="shared" si="1"/>
+        <v>1.8000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
-        <v>0.1097</v>
+        <v>0.10970000000000001</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51:B53" si="3">B50+A51</f>
-        <v>0.3348</v>
+        <f t="shared" ref="B51:B53" si="2">B50+A51</f>
+        <v>0.33479999999999999</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
-        <v>3.284388</v>
+        <f t="shared" si="0"/>
+        <v>3.2843879999999999</v>
       </c>
       <c r="D51" s="1">
         <v>3.3</v>
@@ -1252,21 +1788,21 @@
         <v>0.05</v>
       </c>
       <c r="F51">
+        <f t="shared" si="1"/>
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="B52">
         <f t="shared" si="2"/>
-        <v>0.0033</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>0.1456</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="3"/>
-        <v>0.4804</v>
+        <v>0.48039999999999999</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
-        <v>4.712724</v>
+        <f t="shared" si="0"/>
+        <v>4.7127240000000006</v>
       </c>
       <c r="D52" s="1">
         <v>5.2</v>
@@ -1275,20 +1811,20 @@
         <v>0.05</v>
       </c>
       <c r="F52">
+        <f t="shared" si="1"/>
+        <v>5.2000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>0.14860000000000001</v>
+      </c>
+      <c r="B53">
         <f t="shared" si="2"/>
-        <v>0.0052</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>0.1486</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="3"/>
         <v>0.629</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.17049</v>
       </c>
       <c r="D53" s="1">
@@ -1298,62 +1834,62 @@
         <v>0.05</v>
       </c>
       <c r="F53">
-        <f t="shared" si="2"/>
-        <v>0.0077</v>
+        <f t="shared" si="1"/>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I53" s="1">
-        <v>0.1316</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>0.13159999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B57">
-        <f t="shared" ref="B57:B61" si="4">C49/F49</f>
-        <v>2581.992</v>
-      </c>
-    </row>
-    <row r="58">
+        <f t="shared" ref="B57:B61" si="3">C49/F49</f>
+        <v>2581.9920000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B58">
-        <f t="shared" si="4"/>
-        <v>1226.795</v>
-      </c>
-    </row>
-    <row r="59">
+        <f t="shared" si="3"/>
+        <v>1226.7949999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B59">
-        <f t="shared" si="4"/>
-        <v>995.2690909</v>
-      </c>
-    </row>
-    <row r="60">
+        <f t="shared" si="3"/>
+        <v>995.26909090909089</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B60">
-        <f t="shared" si="4"/>
-        <v>906.2930769</v>
-      </c>
-    </row>
-    <row r="61">
+        <f t="shared" si="3"/>
+        <v>906.29307692307691</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B61">
-        <f t="shared" si="4"/>
-        <v>801.3623377</v>
-      </c>
-    </row>
-    <row r="63">
+        <f t="shared" si="3"/>
+        <v>801.36233766233761</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="G63" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:10" ht="13" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>32</v>
       </c>
@@ -1367,11 +1903,11 @@
         <v>35</v>
       </c>
       <c r="J64">
-        <f> 0.1456+I53</f>
+        <f>0.1456+I53</f>
         <v>0.2772</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
@@ -1391,102 +1927,102 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B66" s="1">
         <v>2.17</v>
       </c>
       <c r="D66" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="E66" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F70" si="5">B66*2*PI()</f>
-        <v>13.63451212</v>
+        <f t="shared" ref="F66:F70" si="4">B66*2*PI()</f>
+        <v>13.634512116579701</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G70" si="6">F66^2*$J$64</f>
-        <v>51.53145801</v>
-      </c>
-    </row>
-    <row r="67">
+        <f t="shared" ref="G66:G70" si="5">F66^2*$J$64</f>
+        <v>51.531458006164392</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B67" s="1">
         <v>2.08</v>
       </c>
       <c r="D67" s="1">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="E67" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F67">
+        <f t="shared" si="4"/>
+        <v>13.06902543893354</v>
+      </c>
+      <c r="G67">
         <f t="shared" si="5"/>
-        <v>13.06902544</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="6"/>
-        <v>47.34560087</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>47.345600865991983</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B68" s="1">
         <v>2.17</v>
       </c>
       <c r="D68" s="1">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="E68" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F68">
+        <f t="shared" si="4"/>
+        <v>13.634512116579701</v>
+      </c>
+      <c r="G68">
         <f t="shared" si="5"/>
-        <v>13.63451212</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="6"/>
-        <v>51.53145801</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>51.531458006164392</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B69" s="1">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D69" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="E69" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F69">
+        <f t="shared" si="4"/>
+        <v>13.948671381938683</v>
+      </c>
+      <c r="G69">
         <f t="shared" si="5"/>
-        <v>13.94867138</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="6"/>
-        <v>53.93353812</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>53.933538116668572</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B70" s="1">
         <v>2.17</v>
       </c>
       <c r="D70" s="1">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="E70" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="F70">
+        <f t="shared" si="4"/>
+        <v>13.634512116579701</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="5"/>
-        <v>13.63451212</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="6"/>
-        <v>51.53145801</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>51.531458006164392</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>36</v>
       </c>
@@ -1494,19 +2030,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B75" s="1"/>
       <c r="E75" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F75" s="1">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>40</v>
       </c>
@@ -1517,113 +2053,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B77" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C77" s="1">
-        <v>0.0054</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="D77" s="1">
-        <v>5.0E-4</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B78" s="1">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="C78" s="1">
-        <v>2.035</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="D78" s="1">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B79" s="1">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="C79" s="1">
-        <v>4.047</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>4.0469999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="13" x14ac:dyDescent="0.15">
       <c r="B80" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="C80" s="1">
-        <v>6.017</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>6.0170000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B81" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="C81" s="1">
-        <v>7.852</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>7.8520000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B82" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="C82" s="1">
         <v>9.875</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B84" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="C84" s="1">
-        <v>-2.098</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>-2.0979999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B85" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="C85" s="1">
-        <v>-4.198</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>-4.1980000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B86" s="1">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="C86" s="1">
-        <v>-6.341</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>-6.3410000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B87" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="C87" s="1">
-        <v>-8.529</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>-8.5289999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B88" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="C88" s="1">
-        <v>-10.736</v>
+        <v>-10.736000000000001</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>2.17</v>
       </c>
@@ -1648,17 +2186,17 @@
         <v>0.05</v>
       </c>
       <c r="C2" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="D2" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E6" si="1">A2*2*PI()</f>
-        <v>13.63451212</v>
-      </c>
-    </row>
-    <row r="3">
+        <f t="shared" ref="E2:E6" si="0">A2*2*PI()</f>
+        <v>13.634512116579701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2.08</v>
       </c>
@@ -1666,17 +2204,17 @@
         <v>0.05</v>
       </c>
       <c r="C3" s="1">
-        <v>470.0</v>
+        <v>470</v>
       </c>
       <c r="D3" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <f t="shared" si="1"/>
-        <v>13.06902544</v>
-      </c>
-    </row>
-    <row r="4">
+        <f t="shared" si="0"/>
+        <v>13.06902543893354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2.17</v>
       </c>
@@ -1684,35 +2222,35 @@
         <v>0.05</v>
       </c>
       <c r="C4" s="1">
-        <v>480.0</v>
+        <v>480</v>
       </c>
       <c r="D4" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>13.63451212</v>
-      </c>
-    </row>
-    <row r="5">
+        <f t="shared" si="0"/>
+        <v>13.634512116579701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="B5" s="1">
         <v>0.05</v>
       </c>
       <c r="C5" s="1">
-        <v>440.0</v>
+        <v>440</v>
       </c>
       <c r="D5" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>13.94867138</v>
-      </c>
-    </row>
-    <row r="6">
+        <f t="shared" si="0"/>
+        <v>13.948671381938683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2.17</v>
       </c>
@@ -1720,29 +2258,32 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="1">
-        <v>460.0</v>
+        <v>460</v>
       </c>
       <c r="D6" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>13.63451212</v>
+        <f t="shared" si="0"/>
+        <v>13.634512116579701</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1762,16 +2303,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.1316</v>
+        <v>0.13159999999999999</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C6" si="1">B2*$C$47</f>
-        <v>0</v>
+        <f>B2*9.81</f>
+        <v>1.290996</v>
       </c>
       <c r="D2" s="1">
         <v>0.5</v>
@@ -1780,21 +2321,21 @@
         <v>0.05</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F6" si="2"> D2*10^-3</f>
-        <v>0.0005</v>
-      </c>
-    </row>
-    <row r="3">
+        <f t="shared" ref="F2:F6" si="0">D2*10^-3</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>0.0935</v>
+        <v>9.35E-2</v>
       </c>
       <c r="B3">
-        <f>$B$49+A3</f>
-        <v>0.0935</v>
+        <f>B2+A3</f>
+        <v>0.22509999999999999</v>
       </c>
       <c r="C3">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="C3:C6" si="1">B3*9.81</f>
+        <v>2.2082310000000001</v>
       </c>
       <c r="D3" s="1">
         <v>1.8</v>
@@ -1803,21 +2344,21 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <f t="shared" si="2"/>
-        <v>0.0018</v>
-      </c>
-    </row>
-    <row r="4">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>0.1097</v>
+        <v>0.10970000000000001</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B6" si="3">B3+A4</f>
-        <v>0.2032</v>
+        <f>B3+A4</f>
+        <v>0.33479999999999999</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.2843879999999999</v>
       </c>
       <c r="D4" s="1">
         <v>3.3</v>
@@ -1826,21 +2367,21 @@
         <v>0.05</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
-        <v>0.0033</v>
-      </c>
-    </row>
-    <row r="5">
+        <f t="shared" si="0"/>
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>0.1456</v>
+        <v>0.14560000000000001</v>
       </c>
       <c r="B5">
-        <f t="shared" si="3"/>
-        <v>0.3488</v>
+        <f t="shared" ref="B4:B6" si="2">B4+A5</f>
+        <v>0.48039999999999999</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.7127240000000006</v>
       </c>
       <c r="D5" s="1">
         <v>5.2</v>
@@ -1849,21 +2390,21 @@
         <v>0.05</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>0.0052</v>
-      </c>
-    </row>
-    <row r="6">
+        <f t="shared" si="0"/>
+        <v>5.2000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>0.1486</v>
+        <v>0.14860000000000001</v>
       </c>
       <c r="B6">
-        <f t="shared" si="3"/>
-        <v>0.4974</v>
+        <f>B5+A6</f>
+        <v>0.629</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.17049</v>
       </c>
       <c r="D6" s="1">
         <v>7.7</v>
@@ -1872,23 +2413,24 @@
         <v>0.05</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0.0077</v>
+        <f t="shared" si="0"/>
+        <v>7.7000000000000002E-3</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1902,12 +2444,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
         <v>0.7</v>
@@ -1916,250 +2458,250 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="D4" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>362.0</v>
+        <v>362</v>
       </c>
       <c r="D5" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>468.0</v>
+        <v>468</v>
       </c>
       <c r="D6" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>556.0</v>
+        <v>556</v>
       </c>
       <c r="D7" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>628.0</v>
+        <v>628</v>
       </c>
       <c r="D8" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>681.0</v>
+        <v>681</v>
       </c>
       <c r="D9" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>716.0</v>
+        <v>716</v>
       </c>
       <c r="D10" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>728.0</v>
+        <v>728</v>
       </c>
       <c r="D11" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>715.0</v>
+        <v>715</v>
       </c>
       <c r="D12" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>680.0</v>
+        <v>680</v>
       </c>
       <c r="D13" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>630.0</v>
+        <v>630</v>
       </c>
       <c r="D14" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>557.0</v>
+        <v>557</v>
       </c>
       <c r="D15" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>467.0</v>
+        <v>467</v>
       </c>
       <c r="D16" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>361.0</v>
+        <v>361</v>
       </c>
       <c r="D17" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="D18" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="D19" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="1">
         <v>0.9</v>
@@ -2169,18 +2711,19 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2206,423 +2749,423 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>-75.0</v>
+        <v>-75</v>
       </c>
       <c r="F2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>-270.0</v>
+        <v>-270</v>
       </c>
       <c r="H2" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>-17.0</v>
+        <v>-17</v>
       </c>
       <c r="D3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>-70.0</v>
+        <v>-70</v>
       </c>
       <c r="F3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <v>-255.0</v>
+        <v>-255</v>
       </c>
       <c r="H3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>-10.0</v>
+        <v>-10</v>
       </c>
       <c r="B4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>-34.0</v>
+        <v>-34</v>
       </c>
       <c r="D4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-65.0</v>
+        <v>-65</v>
       </c>
       <c r="F4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>-239.0</v>
+        <v>-239</v>
       </c>
       <c r="H4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>-15.0</v>
+        <v>-15</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>-54.0</v>
+        <v>-54</v>
       </c>
       <c r="D5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>-60.0</v>
+        <v>-60</v>
       </c>
       <c r="F5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>-222.0</v>
+        <v>-222</v>
       </c>
       <c r="H5" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>-20.0</v>
+        <v>-20</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>-67.0</v>
+        <v>-67</v>
       </c>
       <c r="D6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>-55.0</v>
+        <v>-55</v>
       </c>
       <c r="F6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>-206.0</v>
+        <v>-206</v>
       </c>
       <c r="H6" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>-25.0</v>
+        <v>-25</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>-86.0</v>
+        <v>-86</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-50.0</v>
+        <v>-50</v>
       </c>
       <c r="F7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>-189.0</v>
+        <v>-189</v>
       </c>
       <c r="H7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>-30.0</v>
+        <v>-30</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>-106.0</v>
+        <v>-106</v>
       </c>
       <c r="D8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>-45.0</v>
+        <v>-45</v>
       </c>
       <c r="F8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>-171.0</v>
+        <v>-171</v>
       </c>
       <c r="H8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>-35.0</v>
+        <v>-35</v>
       </c>
       <c r="B9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>-122.0</v>
+        <v>-122</v>
       </c>
       <c r="D9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>-40.0</v>
+        <v>-40</v>
       </c>
       <c r="F9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>-155.0</v>
+        <v>-155</v>
       </c>
       <c r="H9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>-40.0</v>
+        <v>-40</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>-141.0</v>
+        <v>-141</v>
       </c>
       <c r="D10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>-35.0</v>
+        <v>-35</v>
       </c>
       <c r="F10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>-136.0</v>
+        <v>-136</v>
       </c>
       <c r="H10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>-45.0</v>
+        <v>-45</v>
       </c>
       <c r="B11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>-160.0</v>
+        <v>-160</v>
       </c>
       <c r="D11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>-30.0</v>
+        <v>-30</v>
       </c>
       <c r="F11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>-119.0</v>
+        <v>-119</v>
       </c>
       <c r="H11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>-50.0</v>
+        <v>-50</v>
       </c>
       <c r="B12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>-177.0</v>
+        <v>-177</v>
       </c>
       <c r="D12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>-25.0</v>
+        <v>-25</v>
       </c>
       <c r="F12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>-102.0</v>
+        <v>-102</v>
       </c>
       <c r="H12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>-55.0</v>
+        <v>-55</v>
       </c>
       <c r="B13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>-194.0</v>
+        <v>-194</v>
       </c>
       <c r="D13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>-20.0</v>
+        <v>-20</v>
       </c>
       <c r="F13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>-84.0</v>
+        <v>-84</v>
       </c>
       <c r="H13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>-60.0</v>
+        <v>-60</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>-213.0</v>
+        <v>-213</v>
       </c>
       <c r="D14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>-15.0</v>
+        <v>-15</v>
       </c>
       <c r="F14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>-66.0</v>
+        <v>-66</v>
       </c>
       <c r="H14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>-65.0</v>
+        <v>-65</v>
       </c>
       <c r="B15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>-232.0</v>
+        <v>-232</v>
       </c>
       <c r="D15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>-10.0</v>
+        <v>-10</v>
       </c>
       <c r="F15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
-        <v>-48.0</v>
+        <v>-48</v>
       </c>
       <c r="H15" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>-70.0</v>
+        <v>-70</v>
       </c>
       <c r="B16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>-251.0</v>
+        <v>-251</v>
       </c>
       <c r="D16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>-5.0</v>
+        <v>-5</v>
       </c>
       <c r="F16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
-        <v>-32.0</v>
+        <v>-32</v>
       </c>
       <c r="H16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>-75.0</v>
+        <v>-75</v>
       </c>
       <c r="B17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>-270.0</v>
+        <v>-270</v>
       </c>
       <c r="D17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
-        <v>-15.0</v>
+        <v>-15</v>
       </c>
       <c r="H17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/jupyter/lab6/rawData/lab 6 measurements.xlsx
+++ b/jupyter/lab6/rawData/lab 6 measurements.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronflannery/Documents/github/MAE170/jupyter/lab6/rawData/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620" tabRatio="500" activeTab="2"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="dynamicMeasurements" sheetId="2" r:id="rId2"/>
-    <sheet name="staticMeasurements" sheetId="3" r:id="rId3"/>
-    <sheet name="accelAngle" sheetId="4" r:id="rId4"/>
-    <sheet name="Part1" sheetId="5" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="dynamicMeasurements" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="staticMeasurements" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="accelAngle" sheetId="4" r:id="rId6"/>
+    <sheet state="visible" name="Part1" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="43">
   <si>
     <t>freq (Hz)</t>
   </si>
@@ -52,6 +36,9 @@
   </si>
   <si>
     <t>Force</t>
+  </si>
+  <si>
+    <t>Force Error</t>
   </si>
   <si>
     <t>Displacement (cm)</t>
@@ -162,24 +149,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -188,35 +172,28 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="18"/>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
       <c:tx>
@@ -225,33 +202,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr sz="1600" b="1">
+              <a:defRPr b="1" sz="1600">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Voltage vs Delta h</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="25400" cmpd="sng">
+            <a:ln cmpd="sng" w="25400">
               <a:solidFill>
                 <a:srgbClr val="3366CC"/>
               </a:solidFill>
@@ -263,120 +235,11 @@
           <c:cat>
             <c:strRef>
               <c:f>Part1!$A$1:$A$1000</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>deltah(cm)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-45</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-65</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-75</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Part1!$B$1:$B$1000</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -385,7 +248,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:ln w="25400" cmpd="sng">
+            <a:ln cmpd="sng" w="25400">
               <a:solidFill>
                 <a:srgbClr val="DC3912"/>
               </a:solidFill>
@@ -397,138 +260,20 @@
           <c:cat>
             <c:strRef>
               <c:f>Part1!$A$1:$A$1000</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>deltah(cm)</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-25</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-30</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-35</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-45</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-55</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-60</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-65</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-75</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Part1!$C$1:$C$1000</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-17.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-34.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-54.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-67.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-86.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-106.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-122.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-141.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-160.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-177.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-194.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-213.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-232.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-251.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-270.0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="-235964720"/>
-        <c:axId val="-139413184"/>
+        <c:axId val="1756142668"/>
+        <c:axId val="999022988"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-235964720"/>
+        <c:axId val="1756142668"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,19 +289,13 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
                   <a:t>Horizontal axis title</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
@@ -564,18 +303,12 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-139413184"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
+        <c:crossAx val="999022988"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-139413184"/>
+        <c:axId val="999022988"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -591,8 +324,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="cross"/>
-        <c:minorTickMark val="cross"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="47625">
@@ -606,39 +337,21 @@
             <a:pPr lvl="0">
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-235964720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossAx val="1756142668"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -652,9 +365,9 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -663,7 +376,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -672,759 +385,513 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="11.29"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="B5" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F5" s="1">
-        <v>-70</v>
+        <v>-70.0</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H5" s="1">
-        <v>-255</v>
+        <v>-255.0</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
-        <v>-5</v>
+        <v>-5.0</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D6" s="1">
-        <v>-17</v>
+        <v>-17.0</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F6" s="1">
-        <v>-65</v>
+        <v>-65.0</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H6" s="1">
-        <v>-239</v>
+        <v>-239.0</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="B7" s="1">
-        <v>-10</v>
+        <v>-10.0</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D7" s="1">
-        <v>-34</v>
+        <v>-34.0</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F7" s="1">
-        <v>-60</v>
+        <v>-60.0</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H7" s="1">
-        <v>-222</v>
+        <v>-222.0</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" s="1">
-        <v>-15</v>
+        <v>-15.0</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D8" s="1">
-        <v>-54</v>
+        <v>-54.0</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F8" s="1">
-        <v>-55</v>
+        <v>-55.0</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H8" s="1">
-        <v>-206</v>
+        <v>-206.0</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="B9" s="1">
-        <v>-20</v>
+        <v>-20.0</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D9" s="1">
-        <v>-67</v>
+        <v>-67.0</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F9" s="1">
-        <v>-50</v>
+        <v>-50.0</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H9" s="1">
-        <v>-189</v>
+        <v>-189.0</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="B10" s="1">
-        <v>-25</v>
+        <v>-25.0</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D10" s="1">
-        <v>-86</v>
+        <v>-86.0</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F10" s="1">
-        <v>-45</v>
+        <v>-45.0</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H10" s="1">
-        <v>-171</v>
+        <v>-171.0</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="B11" s="1">
-        <v>-30</v>
+        <v>-30.0</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D11" s="1">
-        <v>-106</v>
+        <v>-106.0</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F11" s="1">
-        <v>-40</v>
+        <v>-40.0</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H11" s="1">
-        <v>-155</v>
+        <v>-155.0</v>
       </c>
       <c r="I11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="B12" s="1">
-        <v>-35</v>
+        <v>-35.0</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D12" s="1">
-        <v>-122</v>
+        <v>-122.0</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F12" s="1">
-        <v>-35</v>
+        <v>-35.0</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H12" s="1">
-        <v>-136</v>
+        <v>-136.0</v>
       </c>
       <c r="I12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="B13" s="1">
-        <v>-40</v>
+        <v>-40.0</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D13" s="1">
-        <v>-141</v>
+        <v>-141.0</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F13" s="1">
-        <v>-30</v>
+        <v>-30.0</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H13" s="1">
-        <v>-119</v>
+        <v>-119.0</v>
       </c>
       <c r="I13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="B14" s="1">
-        <v>-45</v>
+        <v>-45.0</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D14" s="1">
-        <v>-160</v>
+        <v>-160.0</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F14" s="1">
-        <v>-25</v>
+        <v>-25.0</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H14" s="1">
-        <v>-102</v>
+        <v>-102.0</v>
       </c>
       <c r="I14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="B15" s="1">
-        <v>-50</v>
+        <v>-50.0</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D15" s="1">
-        <v>-177</v>
+        <v>-177.0</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F15" s="1">
-        <v>-20</v>
+        <v>-20.0</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H15" s="1">
-        <v>-84</v>
+        <v>-84.0</v>
       </c>
       <c r="I15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="B16" s="1">
-        <v>-55</v>
+        <v>-55.0</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D16" s="1">
-        <v>-194</v>
+        <v>-194.0</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F16" s="1">
-        <v>-15</v>
+        <v>-15.0</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H16" s="1">
-        <v>-66</v>
+        <v>-66.0</v>
       </c>
       <c r="I16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="B17" s="1">
-        <v>-60</v>
+        <v>-60.0</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D17" s="1">
-        <v>-213</v>
+        <v>-213.0</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F17" s="1">
-        <v>-10</v>
+        <v>-10.0</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H17" s="1">
-        <v>-48</v>
+        <v>-48.0</v>
       </c>
       <c r="I17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="B18" s="1">
-        <v>-65</v>
+        <v>-65.0</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D18" s="1">
-        <v>-232</v>
+        <v>-232.0</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F18" s="1">
-        <v>-5</v>
+        <v>-5.0</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H18" s="1">
-        <v>-32</v>
+        <v>-32.0</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="B19" s="1">
-        <v>-70</v>
+        <v>-70.0</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D19" s="1">
-        <v>-251</v>
+        <v>-251.0</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="H19" s="1">
-        <v>-15</v>
+        <v>-15.0</v>
       </c>
       <c r="I19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="B20" s="1">
-        <v>-75</v>
+        <v>-75.0</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D20" s="1">
-        <v>-270</v>
+        <v>-270.0</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="B25" s="1">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D25" s="1">
         <v>0.7</v>
@@ -1433,250 +900,250 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="B26" s="1">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D26" s="1">
-        <v>130</v>
+        <v>130.0</v>
       </c>
       <c r="E26" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="B27" s="1">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D27" s="1">
-        <v>246</v>
+        <v>246.0</v>
       </c>
       <c r="E27" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="B28" s="1">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D28" s="1">
-        <v>362</v>
+        <v>362.0</v>
       </c>
       <c r="E28" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="B29" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D29" s="1">
-        <v>468</v>
+        <v>468.0</v>
       </c>
       <c r="E29" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="B30" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D30" s="1">
-        <v>556</v>
+        <v>556.0</v>
       </c>
       <c r="E30" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="B31" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D31" s="1">
-        <v>628</v>
+        <v>628.0</v>
       </c>
       <c r="E31" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="B32" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D32" s="1">
-        <v>681</v>
+        <v>681.0</v>
       </c>
       <c r="E32" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="B33" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D33" s="1">
-        <v>716</v>
+        <v>716.0</v>
       </c>
       <c r="E33" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="B34" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D34" s="1">
-        <v>728</v>
+        <v>728.0</v>
       </c>
       <c r="E34" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="B35" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D35" s="1">
-        <v>715</v>
+        <v>715.0</v>
       </c>
       <c r="E35" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="B36" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="C36" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D36" s="1">
-        <v>680</v>
+        <v>680.0</v>
       </c>
       <c r="E36" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="B37" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D37" s="1">
-        <v>630</v>
+        <v>630.0</v>
       </c>
       <c r="E37" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="B38" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D38" s="1">
-        <v>557</v>
+        <v>557.0</v>
       </c>
       <c r="E38" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="B39" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D39" s="1">
-        <v>467</v>
+        <v>467.0</v>
       </c>
       <c r="E39" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="B40" s="1">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="C40" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D40" s="1">
-        <v>361</v>
+        <v>361.0</v>
       </c>
       <c r="E40" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="B41" s="1">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="C41" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D41" s="1">
-        <v>247</v>
+        <v>247.0</v>
       </c>
       <c r="E41" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42">
       <c r="B42" s="1">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="C42" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D42" s="1">
-        <v>129</v>
+        <v>129.0</v>
       </c>
       <c r="E42" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="B43" s="1">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D43" s="1">
         <v>0.9</v>
@@ -1685,26 +1152,26 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44">
       <c r="B44" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46">
       <c r="B46" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="B47" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1">
         <v>9.81</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -1715,24 +1182,24 @@
         <v>6</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B49" s="1">
-        <v>0.13159999999999999</v>
+        <v>0.1316</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:C53" si="0">B49*$C$47</f>
+        <f t="shared" ref="C49:C53" si="1">B49*$C$47</f>
         <v>1.290996</v>
       </c>
       <c r="D49" s="1">
@@ -1742,21 +1209,21 @@
         <v>0.05</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49:F53" si="1">D49*10^-3</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="F49:F53" si="2"> D49*10^-3</f>
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="1">
-        <v>9.35E-2</v>
+        <v>0.0935</v>
       </c>
       <c r="B50">
         <f>$B$49+A50</f>
-        <v>0.22509999999999999</v>
+        <v>0.2251</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
-        <v>2.2082310000000001</v>
+        <f t="shared" si="1"/>
+        <v>2.208231</v>
       </c>
       <c r="D50" s="1">
         <v>1.8</v>
@@ -1765,21 +1232,21 @@
         <v>0.05</v>
       </c>
       <c r="F50">
+        <f t="shared" si="2"/>
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>0.1097</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:B53" si="3">B50+A51</f>
+        <v>0.3348</v>
+      </c>
+      <c r="C51">
         <f t="shared" si="1"/>
-        <v>1.8000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
-        <v>0.10970000000000001</v>
-      </c>
-      <c r="B51">
-        <f t="shared" ref="B51:B53" si="2">B50+A51</f>
-        <v>0.33479999999999999</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="0"/>
-        <v>3.2843879999999999</v>
+        <v>3.284388</v>
       </c>
       <c r="D51" s="1">
         <v>3.3</v>
@@ -1788,21 +1255,21 @@
         <v>0.05</v>
       </c>
       <c r="F51">
+        <f t="shared" si="2"/>
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>0.1456</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>0.4804</v>
+      </c>
+      <c r="C52">
         <f t="shared" si="1"/>
-        <v>3.3E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
-        <v>0.14560000000000001</v>
-      </c>
-      <c r="B52">
-        <f t="shared" si="2"/>
-        <v>0.48039999999999999</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="0"/>
-        <v>4.7127240000000006</v>
+        <v>4.712724</v>
       </c>
       <c r="D52" s="1">
         <v>5.2</v>
@@ -1811,20 +1278,20 @@
         <v>0.05</v>
       </c>
       <c r="F52">
+        <f t="shared" si="2"/>
+        <v>0.0052</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>0.1486</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>0.629</v>
+      </c>
+      <c r="C53">
         <f t="shared" si="1"/>
-        <v>5.2000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
-        <v>0.14860000000000001</v>
-      </c>
-      <c r="B53">
-        <f t="shared" si="2"/>
-        <v>0.629</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="0"/>
         <v>6.17049</v>
       </c>
       <c r="D53" s="1">
@@ -1834,80 +1301,80 @@
         <v>0.05</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
-        <v>7.7000000000000002E-3</v>
+        <f t="shared" si="2"/>
+        <v>0.0077</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I53" s="1">
-        <v>0.13159999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>0.1316</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="B55" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="B56" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="B57">
-        <f t="shared" ref="B57:B61" si="3">C49/F49</f>
-        <v>2581.9920000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <f t="shared" ref="B57:B61" si="4">C49/F49</f>
+        <v>2581.992</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="B58">
-        <f t="shared" si="3"/>
-        <v>1226.7949999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>1226.795</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="B59">
-        <f t="shared" si="3"/>
-        <v>995.26909090909089</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>995.2690909</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="B60">
-        <f t="shared" si="3"/>
-        <v>906.29307692307691</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>906.2930769</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="B61">
-        <f t="shared" si="3"/>
-        <v>801.36233766233761</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <f t="shared" si="4"/>
+        <v>801.3623377</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="G63" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="13" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="B64" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J64">
-        <f>0.1456+I53</f>
+        <f> 0.1456+I53</f>
         <v>0.2772</v>
       </c>
     </row>
-    <row r="65" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="65">
       <c r="B65" s="1" t="s">
         <v>0</v>
       </c>
@@ -1924,244 +1391,242 @@
         <v>3</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="B66" s="1">
         <v>2.17</v>
       </c>
       <c r="D66" s="1">
-        <v>440</v>
+        <v>440.0</v>
       </c>
       <c r="E66" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F70" si="4">B66*2*PI()</f>
-        <v>13.634512116579701</v>
+        <f t="shared" ref="F66:F70" si="5">B66*2*PI()</f>
+        <v>13.63451212</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G70" si="5">F66^2*$J$64</f>
-        <v>51.531458006164392</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+        <f t="shared" ref="G66:G70" si="6">F66^2*$J$64</f>
+        <v>51.53145801</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="B67" s="1">
         <v>2.08</v>
       </c>
       <c r="D67" s="1">
-        <v>470</v>
+        <v>470.0</v>
       </c>
       <c r="E67" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="F67">
-        <f t="shared" si="4"/>
-        <v>13.06902543893354</v>
+        <f t="shared" si="5"/>
+        <v>13.06902544</v>
       </c>
       <c r="G67">
-        <f t="shared" si="5"/>
-        <v>47.345600865991983</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>47.34560087</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="B68" s="1">
         <v>2.17</v>
       </c>
       <c r="D68" s="1">
-        <v>480</v>
+        <v>480.0</v>
       </c>
       <c r="E68" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="F68">
-        <f t="shared" si="4"/>
-        <v>13.634512116579701</v>
+        <f t="shared" si="5"/>
+        <v>13.63451212</v>
       </c>
       <c r="G68">
+        <f t="shared" si="6"/>
+        <v>51.53145801</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="1">
+        <v>2.22</v>
+      </c>
+      <c r="D69" s="1">
+        <v>440.0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F69">
         <f t="shared" si="5"/>
-        <v>51.531458006164392</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B69" s="1">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="D69" s="1">
-        <v>440</v>
-      </c>
-      <c r="E69" s="1">
-        <v>20</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="4"/>
-        <v>13.948671381938683</v>
+        <v>13.94867138</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
-        <v>53.933538116668572</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>53.93353812</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="B70" s="1">
         <v>2.17</v>
       </c>
       <c r="D70" s="1">
-        <v>460</v>
+        <v>460.0</v>
       </c>
       <c r="E70" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
-        <v>13.634512116579701</v>
+        <f t="shared" si="5"/>
+        <v>13.63451212</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
-        <v>51.531458006164392</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+        <f t="shared" si="6"/>
+        <v>51.53145801</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="B74" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="B75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F75" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="B76" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+    <row r="77">
       <c r="B77" s="1">
-        <v>120</v>
+        <v>120.0</v>
       </c>
       <c r="C77" s="1">
-        <v>5.4000000000000003E-3</v>
+        <v>0.0054</v>
       </c>
       <c r="D77" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+        <v>5.0E-4</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="B78" s="1">
-        <v>122</v>
+        <v>122.0</v>
       </c>
       <c r="C78" s="1">
-        <v>2.0350000000000001</v>
+        <v>2.035</v>
       </c>
       <c r="D78" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="B79" s="1">
-        <v>124</v>
+        <v>124.0</v>
       </c>
       <c r="C79" s="1">
-        <v>4.0469999999999997</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+        <v>4.047</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="B80" s="1">
-        <v>126</v>
+        <v>126.0</v>
       </c>
       <c r="C80" s="1">
-        <v>6.0170000000000003</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+        <v>6.017</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="B81" s="1">
-        <v>128</v>
+        <v>128.0</v>
       </c>
       <c r="C81" s="1">
-        <v>7.8520000000000003</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+        <v>7.852</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="B82" s="1">
-        <v>130</v>
+        <v>130.0</v>
       </c>
       <c r="C82" s="1">
         <v>9.875</v>
       </c>
     </row>
-    <row r="84" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="84">
       <c r="B84" s="1">
-        <v>118</v>
+        <v>118.0</v>
       </c>
       <c r="C84" s="1">
-        <v>-2.0979999999999999</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+        <v>-2.098</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="B85" s="1">
-        <v>116</v>
+        <v>116.0</v>
       </c>
       <c r="C85" s="1">
-        <v>-4.1980000000000004</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+        <v>-4.198</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="B86" s="1">
-        <v>114</v>
+        <v>114.0</v>
       </c>
       <c r="C86" s="1">
-        <v>-6.3410000000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+        <v>-6.341</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="B87" s="1">
-        <v>112</v>
+        <v>112.0</v>
       </c>
       <c r="C87" s="1">
-        <v>-8.5289999999999999</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+        <v>-8.529</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="B88" s="1">
-        <v>110</v>
+        <v>110.0</v>
       </c>
       <c r="C88" s="1">
-        <v>-10.736000000000001</v>
+        <v>-10.736</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +1643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1">
         <v>2.17</v>
       </c>
@@ -2186,17 +1651,17 @@
         <v>0.05</v>
       </c>
       <c r="C2" s="1">
-        <v>440</v>
+        <v>440.0</v>
       </c>
       <c r="D2" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E6" si="0">A2*2*PI()</f>
-        <v>13.634512116579701</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" ref="E2:E6" si="1">A2*2*PI()</f>
+        <v>13.63451212</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1">
         <v>2.08</v>
       </c>
@@ -2204,17 +1669,17 @@
         <v>0.05</v>
       </c>
       <c r="C3" s="1">
-        <v>470</v>
+        <v>470.0</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="E3">
-        <f t="shared" si="0"/>
-        <v>13.06902543893354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>13.06902544</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
         <v>2.17</v>
       </c>
@@ -2222,35 +1687,35 @@
         <v>0.05</v>
       </c>
       <c r="C4" s="1">
-        <v>480</v>
+        <v>480.0</v>
       </c>
       <c r="D4" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>13.634512116579701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>13.63451212</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="B5" s="1">
         <v>0.05</v>
       </c>
       <c r="C5" s="1">
-        <v>440</v>
+        <v>440.0</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>13.948671381938683</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f t="shared" si="1"/>
+        <v>13.94867138</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
         <v>2.17</v>
       </c>
@@ -2258,32 +1723,29 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="1">
-        <v>460</v>
+        <v>460.0</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>13.634512116579701</v>
+        <f t="shared" si="1"/>
+        <v>13.63451212</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2302,104 +1764,123 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" s="1">
-        <v>0.13159999999999999</v>
+        <v>0.1316</v>
       </c>
       <c r="C2">
-        <f>B2*9.81</f>
+        <f t="shared" ref="C2:C6" si="1">B2*9.81</f>
         <v>1.290996</v>
       </c>
       <c r="D2" s="1">
-        <v>0.5</v>
+        <f t="shared" ref="D2:D6" si="2">F2/E2*C2</f>
+        <v>0.1290996</v>
       </c>
       <c r="E2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.05</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2:F6" si="0">D2*10^-3</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G2">
+        <f t="shared" ref="G2:G6" si="3"> E2*10^-3</f>
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1">
-        <v>9.35E-2</v>
+        <v>0.0935</v>
       </c>
       <c r="B3">
-        <f>B2+A3</f>
-        <v>0.22509999999999999</v>
+        <f t="shared" ref="B3:B6" si="4">B2+A3</f>
+        <v>0.2251</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C6" si="1">B3*9.81</f>
-        <v>2.2082310000000001</v>
+        <f t="shared" si="1"/>
+        <v>2.208231</v>
       </c>
       <c r="D3" s="1">
+        <f t="shared" si="2"/>
+        <v>0.06133975</v>
+      </c>
+      <c r="E3" s="1">
         <v>1.8</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>0.05</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>1.8000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G3">
+        <f t="shared" si="3"/>
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
-        <v>0.10970000000000001</v>
+        <v>0.1097</v>
       </c>
       <c r="B4">
-        <f>B3+A4</f>
-        <v>0.33479999999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.3348</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>3.2843879999999999</v>
+        <v>3.284388</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.04976345455</v>
+      </c>
+      <c r="E4" s="1">
         <v>3.3</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>0.05</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>3.3E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0.0033</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
-        <v>0.14560000000000001</v>
+        <v>0.1456</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B4:B6" si="2">B4+A5</f>
-        <v>0.48039999999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.4804</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>4.7127240000000006</v>
+        <v>4.712724</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.04531465385</v>
+      </c>
+      <c r="E5" s="1">
         <v>5.2</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>0.05</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>5.2000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G5">
+        <f t="shared" si="3"/>
+        <v>0.0052</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
-        <v>0.14860000000000001</v>
+        <v>0.1486</v>
       </c>
       <c r="B6">
-        <f>B5+A6</f>
+        <f t="shared" si="4"/>
         <v>0.629</v>
       </c>
       <c r="C6">
@@ -2407,49 +1888,52 @@
         <v>6.17049</v>
       </c>
       <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.04006811688</v>
+      </c>
+      <c r="E6" s="1">
         <v>7.7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>0.05</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>7.7000000000000002E-3</v>
+      <c r="G6">
+        <f t="shared" si="3"/>
+        <v>0.0077</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="1">
         <v>0.7</v>
@@ -2458,250 +1942,250 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="1">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="1">
-        <v>130</v>
+        <v>130.0</v>
       </c>
       <c r="D3" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" s="1">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="1">
-        <v>246</v>
+        <v>246.0</v>
       </c>
       <c r="D4" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="A5" s="1">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="1">
-        <v>362</v>
+        <v>362.0</v>
       </c>
       <c r="D5" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="1">
-        <v>468</v>
+        <v>468.0</v>
       </c>
       <c r="D6" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="1">
-        <v>556</v>
+        <v>556.0</v>
       </c>
       <c r="D7" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="1">
-        <v>628</v>
+        <v>628.0</v>
       </c>
       <c r="D8" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C9" s="1">
-        <v>681</v>
+        <v>681.0</v>
       </c>
       <c r="D9" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C10" s="1">
-        <v>716</v>
+        <v>716.0</v>
       </c>
       <c r="D10" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C11" s="1">
-        <v>728</v>
+        <v>728.0</v>
       </c>
       <c r="D11" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="1">
-        <v>715</v>
+        <v>715.0</v>
       </c>
       <c r="D12" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C13" s="1">
-        <v>680</v>
+        <v>680.0</v>
       </c>
       <c r="D13" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C14" s="1">
-        <v>630</v>
+        <v>630.0</v>
       </c>
       <c r="D14" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C15" s="1">
-        <v>557</v>
+        <v>557.0</v>
       </c>
       <c r="D15" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C16" s="1">
-        <v>467</v>
+        <v>467.0</v>
       </c>
       <c r="D16" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="A17" s="1">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C17" s="1">
-        <v>361</v>
+        <v>361.0</v>
       </c>
       <c r="D17" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="A18" s="1">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C18" s="1">
-        <v>247</v>
+        <v>247.0</v>
       </c>
       <c r="D18" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="A19" s="1">
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C19" s="1">
-        <v>129</v>
+        <v>129.0</v>
       </c>
       <c r="D19" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="A20" s="1">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="B20" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C20" s="1">
         <v>0.9</v>
@@ -2711,461 +2195,460 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E2" s="1">
-        <v>-75</v>
+        <v>-75.0</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G2" s="1">
-        <v>-270</v>
+        <v>-270.0</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1">
-        <v>-5</v>
+        <v>-5.0</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C3" s="1">
-        <v>-17</v>
+        <v>-17.0</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E3" s="1">
-        <v>-70</v>
+        <v>-70.0</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G3" s="1">
-        <v>-255</v>
+        <v>-255.0</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
-        <v>-10</v>
+        <v>-10.0</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C4" s="1">
-        <v>-34</v>
+        <v>-34.0</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E4" s="1">
-        <v>-65</v>
+        <v>-65.0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G4" s="1">
-        <v>-239</v>
+        <v>-239.0</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1">
-        <v>-15</v>
+        <v>-15.0</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C5" s="1">
-        <v>-54</v>
+        <v>-54.0</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E5" s="1">
-        <v>-60</v>
+        <v>-60.0</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G5" s="1">
-        <v>-222</v>
+        <v>-222.0</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
-        <v>-20</v>
+        <v>-20.0</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="1">
-        <v>-67</v>
+        <v>-67.0</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E6" s="1">
-        <v>-55</v>
+        <v>-55.0</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G6" s="1">
-        <v>-206</v>
+        <v>-206.0</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
-        <v>-25</v>
+        <v>-25.0</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7" s="1">
-        <v>-86</v>
+        <v>-86.0</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E7" s="1">
-        <v>-50</v>
+        <v>-50.0</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G7" s="1">
-        <v>-189</v>
+        <v>-189.0</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
-        <v>-30</v>
+        <v>-30.0</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="1">
-        <v>-106</v>
+        <v>-106.0</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E8" s="1">
-        <v>-45</v>
+        <v>-45.0</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G8" s="1">
-        <v>-171</v>
+        <v>-171.0</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="1">
-        <v>-35</v>
+        <v>-35.0</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C9" s="1">
-        <v>-122</v>
+        <v>-122.0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E9" s="1">
-        <v>-40</v>
+        <v>-40.0</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G9" s="1">
-        <v>-155</v>
+        <v>-155.0</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1">
-        <v>-40</v>
+        <v>-40.0</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C10" s="1">
-        <v>-141</v>
+        <v>-141.0</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E10" s="1">
-        <v>-35</v>
+        <v>-35.0</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G10" s="1">
-        <v>-136</v>
+        <v>-136.0</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1">
-        <v>-45</v>
+        <v>-45.0</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C11" s="1">
-        <v>-160</v>
+        <v>-160.0</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E11" s="1">
-        <v>-30</v>
+        <v>-30.0</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G11" s="1">
-        <v>-119</v>
+        <v>-119.0</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1">
-        <v>-50</v>
+        <v>-50.0</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C12" s="1">
-        <v>-177</v>
+        <v>-177.0</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E12" s="1">
-        <v>-25</v>
+        <v>-25.0</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G12" s="1">
-        <v>-102</v>
+        <v>-102.0</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1">
-        <v>-55</v>
+        <v>-55.0</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C13" s="1">
-        <v>-194</v>
+        <v>-194.0</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E13" s="1">
-        <v>-20</v>
+        <v>-20.0</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G13" s="1">
-        <v>-84</v>
+        <v>-84.0</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1">
-        <v>-60</v>
+        <v>-60.0</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C14" s="1">
-        <v>-213</v>
+        <v>-213.0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E14" s="1">
-        <v>-15</v>
+        <v>-15.0</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G14" s="1">
-        <v>-66</v>
+        <v>-66.0</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1">
-        <v>-65</v>
+        <v>-65.0</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C15" s="1">
-        <v>-232</v>
+        <v>-232.0</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E15" s="1">
-        <v>-10</v>
+        <v>-10.0</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G15" s="1">
-        <v>-48</v>
+        <v>-48.0</v>
       </c>
       <c r="H15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1">
-        <v>-70</v>
+        <v>-70.0</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C16" s="1">
-        <v>-251</v>
+        <v>-251.0</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E16" s="1">
-        <v>-5</v>
+        <v>-5.0</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G16" s="1">
-        <v>-32</v>
+        <v>-32.0</v>
       </c>
       <c r="H16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1">
-        <v>-75</v>
+        <v>-75.0</v>
       </c>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C17" s="1">
-        <v>-270</v>
+        <v>-270.0</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F17" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="G17" s="1">
-        <v>-15</v>
+        <v>-15.0</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>